--- a/data/03024.xlsx
+++ b/data/03024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,6 +1735,43 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>03024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CETECH</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03024.xlsx
+++ b/data/03024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,6 +1772,43 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CETECH</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
